--- a/data/trans_bre/P5_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,94</t>
+          <t>-5,31; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 12,99</t>
+          <t>-1,76; 26,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,26</t>
+          <t>-5,46; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,85</t>
+          <t>-1,81; 36,59</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-2,28%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,77</t>
+          <t>-4,65; 2,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,22</t>
+          <t>-6,05; 1,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,95</t>
+          <t>-4,72; 2,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,32</t>
+          <t>-6,14; 1,29</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-15,91%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 1,95</t>
+          <t>-29,21; -7,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 4,24</t>
+          <t>-31,1; -7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 1,57</t>
+          <t>-29,21; -7,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 4,08</t>
+          <t>-31,1; -7,13</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,83</t>
+          <t>-5,34; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,88</t>
+          <t>-3,7; 9,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,92</t>
+          <t>-5,41; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,52</t>
+          <t>-3,78; 11,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.9301359360465278</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.733880226226228</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.00962082013921787</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.05163180673161294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 3,43</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 26,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 3,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 36,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.312301739351582</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.548580053449429</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.0545735097517016</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.01561553439575524</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.427282975910841</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.78323418333954</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.03595464123367947</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2598203385261606</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,46%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 2,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 1,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 2,09</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 1,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.437183118409657</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.467964173955173</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01460286112293051</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.02501950588562902</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-15,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-15,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-15,45%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-15,91%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.645809837047477</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.350433917105713</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04715788488053931</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06395707311128304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-29,21; -7,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; -7,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-29,21; -7,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; -7,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.02244284600337</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6782445555058079</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0209165340314158</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.006342672289698856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-15.45287672816317</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-19.33605077900634</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1545287672816317</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1933605077900634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 9,84</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 0,0</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 11,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-29.20535611155549</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-37.5816215189728</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2920535611155549</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.375816215189728</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-7.153367499461289</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-7.725951806515657</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>-0.07153367499461288</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.07725951806515657</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.573895948912797</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7128545495448169</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02633039970126433</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.007468476381182637</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.343337983371959</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.318207921384478</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05413893590700134</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04412301535951957</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.004786417229262071</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.999610252804575</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.957207638160653e-05</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.07928025540162346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
